--- a/Code/Results/Cases/Case_6_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.325037538464301</v>
+        <v>1.030042432991905</v>
       </c>
       <c r="C2">
-        <v>0.5165697066416612</v>
+        <v>0.144613069914584</v>
       </c>
       <c r="D2">
-        <v>0.04067239909548448</v>
+        <v>0.2023492885988105</v>
       </c>
       <c r="E2">
-        <v>0.1163725362561223</v>
+        <v>0.1695120153851661</v>
       </c>
       <c r="F2">
-        <v>2.49112878205591</v>
+        <v>0.8853643907976121</v>
       </c>
       <c r="G2">
-        <v>0.00081185621082929</v>
+        <v>0.0008193306066069729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2250112517549212</v>
+        <v>0.1863579182174178</v>
       </c>
       <c r="K2">
-        <v>0.6353002292336711</v>
+        <v>1.079601545594301</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.687583374896491</v>
+        <v>2.059784331988027</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.012798068922507</v>
+        <v>0.8945782418473698</v>
       </c>
       <c r="C3">
-        <v>0.4456404031496106</v>
+        <v>0.1283481403929869</v>
       </c>
       <c r="D3">
-        <v>0.03575210212343194</v>
+        <v>0.1776891851469173</v>
       </c>
       <c r="E3">
-        <v>0.1033316084244156</v>
+        <v>0.1505089720455999</v>
       </c>
       <c r="F3">
-        <v>2.289832282359583</v>
+        <v>0.8569129390835997</v>
       </c>
       <c r="G3">
-        <v>0.0008201729573951635</v>
+        <v>0.0008234787262554641</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2005957638261009</v>
+        <v>0.1671456260662012</v>
       </c>
       <c r="K3">
-        <v>0.549235311794277</v>
+        <v>0.9386888776836031</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.556064125333748</v>
+        <v>2.041282395459149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.823902503533105</v>
+        <v>0.8116523557932283</v>
       </c>
       <c r="C4">
-        <v>0.4026531351396443</v>
+        <v>0.1183555191668972</v>
       </c>
       <c r="D4">
-        <v>0.03275385988508361</v>
+        <v>0.162660105972904</v>
       </c>
       <c r="E4">
-        <v>0.09550554498199304</v>
+        <v>0.1389999912743392</v>
       </c>
       <c r="F4">
-        <v>2.171364990116629</v>
+        <v>0.8411122285869439</v>
       </c>
       <c r="G4">
-        <v>0.0008254119807204017</v>
+        <v>0.0008261086163735942</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1860284943573873</v>
+        <v>0.1555858694184096</v>
       </c>
       <c r="K4">
-        <v>0.4971432642291944</v>
+        <v>0.8523311288225841</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.478905603512644</v>
+        <v>2.034275430197084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.74753803658578</v>
+        <v>0.7779080154398059</v>
       </c>
       <c r="C5">
-        <v>0.3852547724420674</v>
+        <v>0.1142806550603694</v>
       </c>
       <c r="D5">
-        <v>0.03153714006435848</v>
+        <v>0.1565608972251056</v>
       </c>
       <c r="E5">
-        <v>0.09235713043837634</v>
+        <v>0.1343465808314086</v>
       </c>
       <c r="F5">
-        <v>2.124259089140963</v>
+        <v>0.8350730709690097</v>
       </c>
       <c r="G5">
-        <v>0.0008275818640470256</v>
+        <v>0.0008272015670320663</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1801875962043979</v>
+        <v>0.1509300939111142</v>
       </c>
       <c r="K5">
-        <v>0.4760775904984058</v>
+        <v>0.8171668189937691</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.448283176812524</v>
+        <v>2.032466883917621</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.734892051328615</v>
+        <v>0.7723073328505166</v>
       </c>
       <c r="C6">
-        <v>0.3823723749209194</v>
+        <v>0.1136038219334239</v>
       </c>
       <c r="D6">
-        <v>0.03133539413937569</v>
+        <v>0.1555495700015967</v>
       </c>
       <c r="E6">
-        <v>0.0918366690027419</v>
+        <v>0.1335760002286221</v>
       </c>
       <c r="F6">
-        <v>2.116504577533505</v>
+        <v>0.8340938573910037</v>
       </c>
       <c r="G6">
-        <v>0.0008279443267588116</v>
+        <v>0.0008273843453502075</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1792231699963764</v>
+        <v>0.1501601932028933</v>
       </c>
       <c r="K6">
-        <v>0.4725887093903367</v>
+        <v>0.8113290641632886</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.443245573114567</v>
+        <v>2.032228450822629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.822870270194443</v>
+        <v>0.811197089014172</v>
       </c>
       <c r="C7">
-        <v>0.4024180398976114</v>
+        <v>0.1183005770862025</v>
       </c>
       <c r="D7">
-        <v>0.03273743098988291</v>
+        <v>0.162577751445383</v>
       </c>
       <c r="E7">
-        <v>0.09546292530554013</v>
+        <v>0.1389370899301881</v>
       </c>
       <c r="F7">
-        <v>2.170725114949121</v>
+        <v>0.8410291892453756</v>
       </c>
       <c r="G7">
-        <v>0.0008254411009672546</v>
+        <v>0.0008261232697628284</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1859493499130949</v>
+        <v>0.1555228635313668</v>
       </c>
       <c r="K7">
-        <v>0.4968585420537508</v>
+        <v>0.8518567983331593</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.478489403010769</v>
+        <v>2.034246862285841</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.216730616203108</v>
+        <v>0.9832737439914752</v>
       </c>
       <c r="C8">
-        <v>0.4919821441944805</v>
+        <v>0.1390053238189353</v>
       </c>
       <c r="D8">
-        <v>0.03897072251362488</v>
+        <v>0.1938213197238099</v>
       </c>
       <c r="E8">
-        <v>0.1118354268520605</v>
+        <v>0.1629246773131356</v>
       </c>
       <c r="F8">
-        <v>2.420582049494357</v>
+        <v>0.8751957580205527</v>
       </c>
       <c r="G8">
-        <v>0.000814697338947476</v>
+        <v>0.0008207439109896265</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2164977410359796</v>
+        <v>0.1796815538576055</v>
       </c>
       <c r="K8">
-        <v>0.6054519880701221</v>
+        <v>1.030972338686269</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.641436844004616</v>
+        <v>2.052471780541993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.016368181738358</v>
+        <v>1.323393236422334</v>
       </c>
       <c r="C9">
-        <v>0.6732234121805618</v>
+        <v>0.1796261323913626</v>
       </c>
       <c r="D9">
-        <v>0.05140945092231419</v>
+        <v>0.256126765487835</v>
       </c>
       <c r="E9">
-        <v>0.1456187482446722</v>
+        <v>0.2113893856363873</v>
       </c>
       <c r="F9">
-        <v>2.957219280437073</v>
+        <v>0.956385840798518</v>
       </c>
       <c r="G9">
-        <v>0.0007945996383579032</v>
+        <v>0.0008108340420444499</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2803294358949415</v>
+        <v>0.2291563563316998</v>
       </c>
       <c r="K9">
-        <v>0.8257260774139894</v>
+        <v>1.384197101111567</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.993680085024792</v>
+        <v>2.125039381318913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.628193925738913</v>
+        <v>1.575969667345817</v>
       </c>
       <c r="C10">
-        <v>0.8115930756941054</v>
+        <v>0.2095829924563049</v>
       </c>
       <c r="D10">
-        <v>0.06073424093329294</v>
+        <v>0.3027543953264598</v>
       </c>
       <c r="E10">
-        <v>0.1718380416080478</v>
+        <v>0.2481106433168847</v>
       </c>
       <c r="F10">
-        <v>3.389270463240791</v>
+        <v>1.026096308908379</v>
       </c>
       <c r="G10">
-        <v>0.000780300225333267</v>
+        <v>0.0008039147831634733</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3305026763660379</v>
+        <v>0.2671170295980403</v>
       </c>
       <c r="K10">
-        <v>0.9941588989680241</v>
+        <v>1.645961851181113</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.278948353009397</v>
+        <v>2.204194686265311</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.913807363716728</v>
+        <v>1.691712813455325</v>
       </c>
       <c r="C11">
-        <v>0.87614085599688</v>
+        <v>0.2232603861677092</v>
       </c>
       <c r="D11">
-        <v>0.06503108959244486</v>
+        <v>0.324204153164743</v>
       </c>
       <c r="E11">
-        <v>0.1841669272613231</v>
+        <v>0.2651168528626258</v>
       </c>
       <c r="F11">
-        <v>3.596437766184039</v>
+        <v>1.060331126428352</v>
       </c>
       <c r="G11">
-        <v>0.0007738641918137365</v>
+        <v>0.00080083891615499</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3542676661602684</v>
+        <v>0.2848157655207615</v>
       </c>
       <c r="K11">
-        <v>1.072769427108696</v>
+        <v>1.765786574618915</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.416163168415039</v>
+        <v>2.246626421575513</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.023202340467492</v>
+        <v>1.735685787245785</v>
       </c>
       <c r="C12">
-        <v>0.900859312864668</v>
+        <v>0.228449026754376</v>
       </c>
       <c r="D12">
-        <v>0.06666747021162678</v>
+        <v>0.3323655762082325</v>
       </c>
       <c r="E12">
-        <v>0.188902682101201</v>
+        <v>0.2716052497869867</v>
       </c>
       <c r="F12">
-        <v>3.676647496669261</v>
+        <v>1.073688106327936</v>
       </c>
       <c r="G12">
-        <v>0.0007714338608633725</v>
+        <v>0.0007996839012894446</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3634242395559255</v>
+        <v>0.2915867927813167</v>
       </c>
       <c r="K12">
-        <v>1.102876711427328</v>
+        <v>1.811290773193946</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.469356813754743</v>
+        <v>2.263691097366177</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.999583732034012</v>
+        <v>1.726208665905148</v>
       </c>
       <c r="C13">
-        <v>0.8955227049731604</v>
+        <v>0.2273311101604207</v>
       </c>
       <c r="D13">
-        <v>0.06631461108440106</v>
+        <v>0.3306060630330592</v>
       </c>
       <c r="E13">
-        <v>0.1878796073415074</v>
+        <v>0.2702056134464215</v>
       </c>
       <c r="F13">
-        <v>3.659290583983989</v>
+        <v>1.070793458242633</v>
       </c>
       <c r="G13">
-        <v>0.0007719570241640916</v>
+        <v>0.0007999322302968794</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3614448296276862</v>
+        <v>0.2901253487788438</v>
       </c>
       <c r="K13">
-        <v>1.0963765596276</v>
+        <v>1.801484518643349</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.457842923298543</v>
+        <v>2.259970363789876</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.92278132867591</v>
+        <v>1.695327486821498</v>
       </c>
       <c r="C14">
-        <v>0.8781686531501407</v>
+        <v>0.2236870592973474</v>
       </c>
       <c r="D14">
-        <v>0.06516552166142731</v>
+        <v>0.324874792139056</v>
       </c>
       <c r="E14">
-        <v>0.1845551384847468</v>
+        <v>0.2656496539597342</v>
       </c>
       <c r="F14">
-        <v>3.602999954138596</v>
+        <v>1.061421956027843</v>
       </c>
       <c r="G14">
-        <v>0.0007736641286173564</v>
+        <v>0.0008007437003941866</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3550176939858574</v>
+        <v>0.2853713989386648</v>
       </c>
       <c r="K14">
-        <v>1.075239243581976</v>
+        <v>1.769527512369649</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.420513710921256</v>
+        <v>2.248009929494771</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.875905151398285</v>
+        <v>1.676431252613469</v>
       </c>
       <c r="C15">
-        <v>0.8675761370211319</v>
+        <v>0.221456251727119</v>
       </c>
       <c r="D15">
-        <v>0.06446292013195176</v>
+        <v>0.3213694255584159</v>
       </c>
       <c r="E15">
-        <v>0.1825278384871893</v>
+        <v>0.2628654748832915</v>
       </c>
       <c r="F15">
-        <v>3.568756943989115</v>
+        <v>1.055733754325018</v>
       </c>
       <c r="G15">
-        <v>0.000774710574921067</v>
+        <v>0.0008012420013770453</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3511020750490417</v>
+        <v>0.2824686581373044</v>
       </c>
       <c r="K15">
-        <v>1.062337898652544</v>
+        <v>1.749970422949673</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.397814322372923</v>
+        <v>2.240815878641456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.609690872299211</v>
+        <v>1.568424428741878</v>
       </c>
       <c r="C16">
-        <v>0.8074106946048119</v>
+        <v>0.2086903246659944</v>
       </c>
       <c r="D16">
-        <v>0.06045464931541034</v>
+        <v>0.3013577862809456</v>
       </c>
       <c r="E16">
-        <v>0.1710411701592349</v>
+        <v>0.2470057469530644</v>
       </c>
       <c r="F16">
-        <v>3.375964536648524</v>
+        <v>1.023912283663194</v>
       </c>
       <c r="G16">
-        <v>0.0007807219691362016</v>
+        <v>0.0008041171942764783</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.328970324669541</v>
+        <v>0.2659696220953265</v>
       </c>
       <c r="K16">
-        <v>0.9890659274489195</v>
+        <v>1.638147873141946</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.270144276819011</v>
+        <v>2.201557047067297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.448372416099801</v>
+        <v>1.502397297187315</v>
       </c>
       <c r="C17">
-        <v>0.7709418352851287</v>
+        <v>0.2008730784172457</v>
       </c>
       <c r="D17">
-        <v>0.05801068836961321</v>
+        <v>0.2891455431817036</v>
       </c>
       <c r="E17">
-        <v>0.1641035836440921</v>
+        <v>0.2373570937956231</v>
       </c>
       <c r="F17">
-        <v>3.260569604452996</v>
+        <v>1.005057854104948</v>
       </c>
       <c r="G17">
-        <v>0.0007844253517822583</v>
+        <v>0.0008058990145938448</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3156489410101813</v>
+        <v>0.2559630295276492</v>
       </c>
       <c r="K17">
-        <v>0.944661096800715</v>
+        <v>1.569754572005166</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.19383879855117</v>
+        <v>2.179168494259045</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.356259722095729</v>
+        <v>1.4644983399061</v>
       </c>
       <c r="C18">
-        <v>0.7501137221394742</v>
+        <v>0.1963813604370301</v>
       </c>
       <c r="D18">
-        <v>0.05661006807251567</v>
+        <v>0.282143551553645</v>
       </c>
       <c r="E18">
-        <v>0.1601504414352561</v>
+        <v>0.2318354939229579</v>
       </c>
       <c r="F18">
-        <v>3.195181981932365</v>
+        <v>0.9944488434966274</v>
       </c>
       <c r="G18">
-        <v>0.0007865621229685636</v>
+        <v>0.0008069306589867828</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3080739204281997</v>
+        <v>0.2502475463322895</v>
       </c>
       <c r="K18">
-        <v>0.9193043116659112</v>
+        <v>1.530485424574465</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.150639711187651</v>
+        <v>2.166891126320166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.325182195713182</v>
+        <v>1.451679173611979</v>
       </c>
       <c r="C19">
-        <v>0.7430857920511187</v>
+        <v>0.1948612620948182</v>
       </c>
       <c r="D19">
-        <v>0.05613667646213827</v>
+        <v>0.2797764715266453</v>
       </c>
       <c r="E19">
-        <v>0.1588180957648007</v>
+        <v>0.229970641858948</v>
       </c>
       <c r="F19">
-        <v>3.173205365911258</v>
+        <v>0.9908963892326454</v>
       </c>
       <c r="G19">
-        <v>0.000787286831272421</v>
+        <v>0.0008072811387030273</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3055234832593783</v>
+        <v>0.2483190538675188</v>
       </c>
       <c r="K19">
-        <v>0.9107489873804724</v>
+        <v>1.517200757794427</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.136127104106237</v>
+        <v>2.162835124188518</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.465474042784763</v>
+        <v>1.509417760339687</v>
       </c>
       <c r="C20">
-        <v>0.7748084026630124</v>
+        <v>0.201704751262568</v>
       </c>
       <c r="D20">
-        <v>0.05827031703856278</v>
+        <v>0.2904432311357255</v>
       </c>
       <c r="E20">
-        <v>0.1648381905755656</v>
+        <v>0.2383812701808523</v>
       </c>
       <c r="F20">
-        <v>3.272750117667243</v>
+        <v>1.00704034950418</v>
       </c>
       <c r="G20">
-        <v>0.0007840304494703979</v>
+        <v>0.0008057086381566643</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3170578619875215</v>
+        <v>0.2570240547166804</v>
       </c>
       <c r="K20">
-        <v>0.9493686928337297</v>
+        <v>1.577027875307351</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.201889144279392</v>
+        <v>2.181489191522701</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.94530476856545</v>
+        <v>1.704393957139757</v>
       </c>
       <c r="C21">
-        <v>0.883258087078957</v>
+        <v>0.2247571347894564</v>
       </c>
       <c r="D21">
-        <v>0.06550277412269168</v>
+        <v>0.3265571125574382</v>
       </c>
       <c r="E21">
-        <v>0.1855297146110644</v>
+        <v>0.2669864900044203</v>
       </c>
       <c r="F21">
-        <v>3.619484104268082</v>
+        <v>1.064163675808814</v>
       </c>
       <c r="G21">
-        <v>0.0007731625508493934</v>
+        <v>0.0008005050920359517</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.356901040547001</v>
+        <v>0.2867658205809107</v>
       </c>
       <c r="K21">
-        <v>1.081438120851615</v>
+        <v>1.778910371433966</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.431443323671999</v>
+        <v>2.251495339520233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.266234157831946</v>
+        <v>1.832670440111826</v>
       </c>
       <c r="C22">
-        <v>0.9557685053915179</v>
+        <v>0.2398785837745834</v>
       </c>
       <c r="D22">
-        <v>0.07028432856583322</v>
+        <v>0.350388521298072</v>
       </c>
       <c r="E22">
-        <v>0.1994490589377733</v>
+        <v>0.2859671133197494</v>
       </c>
       <c r="F22">
-        <v>3.856484878630908</v>
+        <v>1.103803438226251</v>
       </c>
       <c r="G22">
-        <v>0.0007660979917121367</v>
+        <v>0.0007971608086118083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3838701369241875</v>
+        <v>0.3066090475400074</v>
       </c>
       <c r="K22">
-        <v>1.169760307369145</v>
+        <v>1.91161659533995</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.588751675561227</v>
+        <v>2.303095888890255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.094207067417358</v>
+        <v>1.764121500650106</v>
       </c>
       <c r="C23">
-        <v>0.9169023287161053</v>
+        <v>0.2318021591961639</v>
       </c>
       <c r="D23">
-        <v>0.06772681830796046</v>
+        <v>0.337646711000005</v>
       </c>
       <c r="E23">
-        <v>0.1919803647911635</v>
+        <v>0.2758088710872784</v>
       </c>
       <c r="F23">
-        <v>3.72895717499506</v>
+        <v>1.082425345933999</v>
       </c>
       <c r="G23">
-        <v>0.0007698660952221541</v>
+        <v>0.0007989407401217497</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3693831144366442</v>
+        <v>0.2959787951002397</v>
       </c>
       <c r="K23">
-        <v>1.122417921632191</v>
+        <v>1.840711179061003</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.504067185228621</v>
+        <v>2.274995066849868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.457740444671117</v>
+        <v>1.506243620843122</v>
       </c>
       <c r="C24">
-        <v>0.7730599000428242</v>
+        <v>0.2013287442761111</v>
       </c>
       <c r="D24">
-        <v>0.05815292517083037</v>
+        <v>0.2898564876033163</v>
       </c>
       <c r="E24">
-        <v>0.1645059653042011</v>
+        <v>0.2379181608728089</v>
       </c>
       <c r="F24">
-        <v>3.267240351843753</v>
+        <v>1.006143347158371</v>
       </c>
       <c r="G24">
-        <v>0.0007842089607791397</v>
+        <v>0.0008057946847481943</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3164206299763066</v>
+        <v>0.2565442491363115</v>
       </c>
       <c r="K24">
-        <v>0.9472398563943614</v>
+        <v>1.573739457433163</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.198247508254013</v>
+        <v>2.180438159225332</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.796383476251833</v>
+        <v>1.230990516493733</v>
       </c>
       <c r="C25">
-        <v>0.6234205591212003</v>
+        <v>0.1686251388223923</v>
       </c>
       <c r="D25">
-        <v>0.04801615231322387</v>
+        <v>0.2391386912838271</v>
       </c>
       <c r="E25">
-        <v>0.1362636993364816</v>
+        <v>0.1981014852631944</v>
       </c>
       <c r="F25">
-        <v>2.80614949062084</v>
+        <v>0.9327628632009066</v>
       </c>
       <c r="G25">
-        <v>0.0007999447997673012</v>
+        <v>0.0008134493099666464</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2625559989837711</v>
+        <v>0.2155144661614656</v>
       </c>
       <c r="K25">
-        <v>0.7651470202599455</v>
+        <v>1.288325329977624</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.894258138339694</v>
+        <v>2.101129279309134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.030042432991905</v>
+        <v>1.011537925869192</v>
       </c>
       <c r="C2">
-        <v>0.144613069914584</v>
+        <v>0.2091636118424844</v>
       </c>
       <c r="D2">
-        <v>0.2023492885988105</v>
+        <v>0.2652791000490424</v>
       </c>
       <c r="E2">
-        <v>0.1695120153851661</v>
+        <v>0.1864026326424479</v>
       </c>
       <c r="F2">
-        <v>0.8853643907976121</v>
+        <v>0.576225343485234</v>
       </c>
       <c r="G2">
-        <v>0.0008193306066069729</v>
+        <v>0.2936467621363761</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0007001030325315405</v>
       </c>
       <c r="J2">
-        <v>0.1863579182174178</v>
+        <v>0.285017585267326</v>
       </c>
       <c r="K2">
-        <v>1.079601545594301</v>
+        <v>0.2524658691428261</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1780728805111451</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.15032921979352</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.059784331988027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.166836131957936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8945782418473698</v>
+        <v>0.8822449119635962</v>
       </c>
       <c r="C3">
-        <v>0.1283481403929869</v>
+        <v>0.1855628159056977</v>
       </c>
       <c r="D3">
-        <v>0.1776891851469173</v>
+        <v>0.2343887214934597</v>
       </c>
       <c r="E3">
-        <v>0.1505089720455999</v>
+        <v>0.1658747161215288</v>
       </c>
       <c r="F3">
-        <v>0.8569129390835997</v>
+        <v>0.5608353149276226</v>
       </c>
       <c r="G3">
-        <v>0.0008234787262554641</v>
+        <v>0.2921957998209592</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001198345914556143</v>
       </c>
       <c r="J3">
-        <v>0.1671456260662012</v>
+        <v>0.2895132720907156</v>
       </c>
       <c r="K3">
-        <v>0.9386888776836031</v>
+        <v>0.2608849441412069</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1595779525932528</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.00600991068012</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.041282395459149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.17285817866582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8116523557932283</v>
+        <v>0.8025889057938969</v>
       </c>
       <c r="C4">
-        <v>0.1183555191668972</v>
+        <v>0.1712411247141432</v>
       </c>
       <c r="D4">
-        <v>0.162660105972904</v>
+        <v>0.2156154352315696</v>
       </c>
       <c r="E4">
-        <v>0.1389999912743392</v>
+        <v>0.1534327688404602</v>
       </c>
       <c r="F4">
-        <v>0.8411122285869439</v>
+        <v>0.5521809578165389</v>
       </c>
       <c r="G4">
-        <v>0.0008261086163735942</v>
+        <v>0.2918173168546048</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001689655199953677</v>
       </c>
       <c r="J4">
-        <v>0.1555858694184096</v>
+        <v>0.292616422668452</v>
       </c>
       <c r="K4">
-        <v>0.8523311288225841</v>
+        <v>0.2663877013193243</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1484042055605457</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9174188037394799</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.034275430197084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.178351688644909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7779080154398059</v>
+        <v>0.7697121241503453</v>
       </c>
       <c r="C5">
-        <v>0.1142806550603694</v>
+        <v>0.1659066495014798</v>
       </c>
       <c r="D5">
-        <v>0.1565608972251056</v>
+        <v>0.208138302846919</v>
       </c>
       <c r="E5">
-        <v>0.1343465808314086</v>
+        <v>0.1484311962379294</v>
       </c>
       <c r="F5">
-        <v>0.8350730709690097</v>
+        <v>0.5484161651065662</v>
       </c>
       <c r="G5">
-        <v>0.0008272015670320663</v>
+        <v>0.2914554552351589</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002006347605858938</v>
       </c>
       <c r="J5">
-        <v>0.1509300939111142</v>
+        <v>0.2937896709107406</v>
       </c>
       <c r="K5">
-        <v>0.8171668189937691</v>
+        <v>0.2684673199249854</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1438756726837269</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8817257328761059</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.032466883917621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.179956705787447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7723073328505166</v>
+        <v>0.7638260886909904</v>
       </c>
       <c r="C6">
-        <v>0.1136038219334239</v>
+        <v>0.1655913804441127</v>
       </c>
       <c r="D6">
-        <v>0.1555495700015967</v>
+        <v>0.2070559441515911</v>
       </c>
       <c r="E6">
-        <v>0.1335760002286221</v>
+        <v>0.1476404428641516</v>
       </c>
       <c r="F6">
-        <v>0.8340938573910037</v>
+        <v>0.5472765596338505</v>
       </c>
       <c r="G6">
-        <v>0.0008273843453502075</v>
+        <v>0.2909980973111388</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002156948783087032</v>
       </c>
       <c r="J6">
-        <v>0.1501601932028933</v>
+        <v>0.2937753556968303</v>
       </c>
       <c r="K6">
-        <v>0.8113290641632886</v>
+        <v>0.2685195332718777</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1431044702014219</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8763015945169172</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.032228450822629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.178942717437153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.811197089014172</v>
+        <v>0.800988025955121</v>
       </c>
       <c r="C7">
-        <v>0.1183005770862025</v>
+        <v>0.1727240042087317</v>
       </c>
       <c r="D7">
-        <v>0.162577751445383</v>
+        <v>0.2159424252871105</v>
       </c>
       <c r="E7">
-        <v>0.1389370899301881</v>
+        <v>0.1534677069971977</v>
       </c>
       <c r="F7">
-        <v>0.8410291892453756</v>
+        <v>0.550694468277193</v>
       </c>
       <c r="G7">
-        <v>0.0008261232697628284</v>
+        <v>0.2907083423968118</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001938544143342824</v>
       </c>
       <c r="J7">
-        <v>0.1555228635313668</v>
+        <v>0.2920487736965782</v>
       </c>
       <c r="K7">
-        <v>0.8518567983331593</v>
+        <v>0.2656041113110597</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1482834791192715</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9183154226211343</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.034246862285841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.174810278979891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9832737439914752</v>
+        <v>0.9654634866261915</v>
       </c>
       <c r="C8">
-        <v>0.1390053238189353</v>
+        <v>0.2030660122831591</v>
       </c>
       <c r="D8">
-        <v>0.1938213197238099</v>
+        <v>0.2551542094647203</v>
       </c>
       <c r="E8">
-        <v>0.1629246773131356</v>
+        <v>0.1794249097356229</v>
       </c>
       <c r="F8">
-        <v>0.8751957580205527</v>
+        <v>0.5688566596387403</v>
       </c>
       <c r="G8">
-        <v>0.0008207439109896265</v>
+        <v>0.2915848611602954</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001124913353076629</v>
       </c>
       <c r="J8">
-        <v>0.1796815538576055</v>
+        <v>0.2857317930502461</v>
       </c>
       <c r="K8">
-        <v>1.030972338686269</v>
+        <v>0.2542392283962283</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1715766391843658</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.102400600406355</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.052471780541993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.163852663446463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.323393236422334</v>
+        <v>1.288141975262107</v>
       </c>
       <c r="C9">
-        <v>0.1796261323913626</v>
+        <v>0.2612692651769919</v>
       </c>
       <c r="D9">
-        <v>0.256126765487835</v>
+        <v>0.3329768790002561</v>
       </c>
       <c r="E9">
-        <v>0.2113893856363873</v>
+        <v>0.2315675392792826</v>
       </c>
       <c r="F9">
-        <v>0.956385840798518</v>
+        <v>0.6137200067463198</v>
       </c>
       <c r="G9">
-        <v>0.0008108340420444499</v>
+        <v>0.2995842512822477</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007342990172292119</v>
       </c>
       <c r="J9">
-        <v>0.2291563563316998</v>
+        <v>0.2772003093795661</v>
       </c>
       <c r="K9">
-        <v>1.384197101111567</v>
+        <v>0.2361332124867452</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2189617703566711</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.461439618622961</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.125039381318913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.163690833850296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575969667345817</v>
+        <v>1.523723159610768</v>
       </c>
       <c r="C10">
-        <v>0.2095829924563049</v>
+        <v>0.3060174458080951</v>
       </c>
       <c r="D10">
-        <v>0.3027543953264598</v>
+        <v>0.3916445097379437</v>
       </c>
       <c r="E10">
-        <v>0.2481106433168847</v>
+        <v>0.2709982808657401</v>
       </c>
       <c r="F10">
-        <v>1.026096308908379</v>
+        <v>0.6506179422210892</v>
       </c>
       <c r="G10">
-        <v>0.0008039147831634733</v>
+        <v>0.3079320677755675</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001676746208841173</v>
       </c>
       <c r="J10">
-        <v>0.2671170295980403</v>
+        <v>0.2725345274197508</v>
       </c>
       <c r="K10">
-        <v>1.645961851181113</v>
+        <v>0.2242862944296853</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2549479461866468</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.726846150212054</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.204194686265311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.172126835030355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.691712813455325</v>
+        <v>1.628803735170095</v>
       </c>
       <c r="C11">
-        <v>0.2232603861677092</v>
+        <v>0.3293526462276191</v>
       </c>
       <c r="D11">
-        <v>0.324204153164743</v>
+        <v>0.4193776736289863</v>
       </c>
       <c r="E11">
-        <v>0.2651168528626258</v>
+        <v>0.2893838184647066</v>
       </c>
       <c r="F11">
-        <v>1.060331126428352</v>
+        <v>0.6662327034707474</v>
       </c>
       <c r="G11">
-        <v>0.00080083891615499</v>
+        <v>0.3107143103001704</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002755594560871266</v>
       </c>
       <c r="J11">
-        <v>0.2848157655207615</v>
+        <v>0.2699466299492528</v>
       </c>
       <c r="K11">
-        <v>1.765786574618915</v>
+        <v>0.2180897761356491</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2715325189924158</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.850264498461939</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.246626421575513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.172829609165149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.735685787245785</v>
+        <v>1.669626028061543</v>
       </c>
       <c r="C12">
-        <v>0.228449026754376</v>
+        <v>0.3368345608869276</v>
       </c>
       <c r="D12">
-        <v>0.3323655762082325</v>
+        <v>0.4295556287466127</v>
       </c>
       <c r="E12">
-        <v>0.2716052497869867</v>
+        <v>0.296301292713558</v>
       </c>
       <c r="F12">
-        <v>1.073688106327936</v>
+        <v>0.673551977551945</v>
       </c>
       <c r="G12">
-        <v>0.0007996839012894446</v>
+        <v>0.3128191359951202</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003010322292490208</v>
       </c>
       <c r="J12">
-        <v>0.2915867927813167</v>
+        <v>0.2695213100927347</v>
       </c>
       <c r="K12">
-        <v>1.811290773193946</v>
+        <v>0.2164764439575784</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2779160935870522</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.895822297772611</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.263691097366177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.176484734163722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.726208665905148</v>
+        <v>1.66104490725229</v>
       </c>
       <c r="C13">
-        <v>0.2273311101604207</v>
+        <v>0.3349363411350339</v>
       </c>
       <c r="D13">
-        <v>0.3306060630330592</v>
+        <v>0.4272852466051233</v>
       </c>
       <c r="E13">
-        <v>0.2702056134464215</v>
+        <v>0.2947915209168102</v>
       </c>
       <c r="F13">
-        <v>1.070793458242633</v>
+        <v>0.6722148161213397</v>
       </c>
       <c r="G13">
-        <v>0.0007999322302968794</v>
+        <v>0.3125484601849493</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002911307745349312</v>
       </c>
       <c r="J13">
-        <v>0.2901253487788438</v>
+        <v>0.2697074087063598</v>
       </c>
       <c r="K13">
-        <v>1.801484518643349</v>
+        <v>0.2169539982013511</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2765497720387344</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.885757652962525</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.259970363789876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.17628265250022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.695327486821498</v>
+        <v>1.632251656116694</v>
       </c>
       <c r="C14">
-        <v>0.2236870592973474</v>
+        <v>0.3298463089245161</v>
       </c>
       <c r="D14">
-        <v>0.324874792139056</v>
+        <v>0.420181671227482</v>
       </c>
       <c r="E14">
-        <v>0.2656496539597342</v>
+        <v>0.2899443909412867</v>
       </c>
       <c r="F14">
-        <v>1.061421956027843</v>
+        <v>0.6669363033715356</v>
       </c>
       <c r="G14">
-        <v>0.0008007437003941866</v>
+        <v>0.310964965978421</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002757425688327153</v>
       </c>
       <c r="J14">
-        <v>0.2853713989386648</v>
+        <v>0.2699517404148466</v>
       </c>
       <c r="K14">
-        <v>1.769527512369649</v>
+        <v>0.2180122821876509</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2720612518603929</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.853905104832279</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.248009929494771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.173378593441711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.676431252613469</v>
+        <v>1.614200327234244</v>
       </c>
       <c r="C15">
-        <v>0.221456251727119</v>
+        <v>0.3272955451877522</v>
       </c>
       <c r="D15">
-        <v>0.3213694255584159</v>
+        <v>0.4159871036152936</v>
       </c>
       <c r="E15">
-        <v>0.2628654748832915</v>
+        <v>0.2870166162592795</v>
       </c>
       <c r="F15">
-        <v>1.055733754325018</v>
+        <v>0.6632394348516826</v>
       </c>
       <c r="G15">
-        <v>0.0008012420013770453</v>
+        <v>0.3096401331167016</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002756331671516676</v>
       </c>
       <c r="J15">
-        <v>0.2824686581373044</v>
+        <v>0.2699179584058058</v>
       </c>
       <c r="K15">
-        <v>1.749970422949673</v>
+        <v>0.2184069590553079</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2692973360418875</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.834894716406808</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.240815878641456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.170463114611181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.568424428741878</v>
+        <v>1.513378116365118</v>
       </c>
       <c r="C16">
-        <v>0.2086903246659944</v>
+        <v>0.3091961645409071</v>
       </c>
       <c r="D16">
-        <v>0.3013577862809456</v>
+        <v>0.3910978507160507</v>
       </c>
       <c r="E16">
-        <v>0.2470057469530644</v>
+        <v>0.270100459100874</v>
       </c>
       <c r="F16">
-        <v>1.023912283663194</v>
+        <v>0.6455114892587517</v>
       </c>
       <c r="G16">
-        <v>0.0008041171942764783</v>
+        <v>0.3046374255129081</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002298245640068863</v>
       </c>
       <c r="J16">
-        <v>0.2659696220953265</v>
+        <v>0.2710853763559982</v>
       </c>
       <c r="K16">
-        <v>1.638147873141946</v>
+        <v>0.2224737525590967</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2536925676571968</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.72292338686637</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.201557047067297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.162092781882649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.502397297187315</v>
+        <v>1.451517943195341</v>
       </c>
       <c r="C17">
-        <v>0.2008730784172457</v>
+        <v>0.2981570182967346</v>
       </c>
       <c r="D17">
-        <v>0.2891455431817036</v>
+        <v>0.3759125720327745</v>
       </c>
       <c r="E17">
-        <v>0.2373570937956231</v>
+        <v>0.259796381962019</v>
       </c>
       <c r="F17">
-        <v>1.005057854104948</v>
+        <v>0.6349534230397538</v>
       </c>
       <c r="G17">
-        <v>0.0008058990145938448</v>
+        <v>0.3017766114846907</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002097295236976215</v>
       </c>
       <c r="J17">
-        <v>0.2559630295276492</v>
+        <v>0.2719243453327564</v>
       </c>
       <c r="K17">
-        <v>1.569754572005166</v>
+        <v>0.2250915244130915</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2442043628885386</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.654308702538287</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.179168494259045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.157654268936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4644983399061</v>
+        <v>1.416980697772829</v>
       </c>
       <c r="C18">
-        <v>0.1963813604370301</v>
+        <v>0.2904041101439674</v>
       </c>
       <c r="D18">
-        <v>0.282143551553645</v>
+        <v>0.3668263712044393</v>
       </c>
       <c r="E18">
-        <v>0.2318354939229579</v>
+        <v>0.2538051874079912</v>
       </c>
       <c r="F18">
-        <v>0.9944488434966274</v>
+        <v>0.6302376668970524</v>
       </c>
       <c r="G18">
-        <v>0.0008069306589867828</v>
+        <v>0.3011515480733422</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001763357294733758</v>
       </c>
       <c r="J18">
-        <v>0.2502475463322895</v>
+        <v>0.2729442964584194</v>
       </c>
       <c r="K18">
-        <v>1.530485424574465</v>
+        <v>0.2273142659103868</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2388304800364551</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.613617711437911</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.166891126320166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.158389230683269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.451679173611979</v>
+        <v>1.404477018530713</v>
       </c>
       <c r="C19">
-        <v>0.1948612620948182</v>
+        <v>0.2888819370048168</v>
       </c>
       <c r="D19">
-        <v>0.2797764715266453</v>
+        <v>0.3640488651785745</v>
       </c>
       <c r="E19">
-        <v>0.229970641858948</v>
+        <v>0.2518505944273173</v>
       </c>
       <c r="F19">
-        <v>0.9908963892326454</v>
+        <v>0.6277003075133578</v>
       </c>
       <c r="G19">
-        <v>0.0008072811387030273</v>
+        <v>0.300222188361623</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001841932488051867</v>
       </c>
       <c r="J19">
-        <v>0.2483190538675188</v>
+        <v>0.2729165197715133</v>
       </c>
       <c r="K19">
-        <v>1.517200757794427</v>
+        <v>0.2275549426754999</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2369744470625932</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.600808704465521</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.162835124188518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.156335007031785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.509417760339687</v>
+        <v>1.458185947764065</v>
       </c>
       <c r="C20">
-        <v>0.201704751262568</v>
+        <v>0.2992177256876545</v>
       </c>
       <c r="D20">
-        <v>0.2904432311357255</v>
+        <v>0.3774960771633005</v>
       </c>
       <c r="E20">
-        <v>0.2383812701808523</v>
+        <v>0.2608834943170493</v>
       </c>
       <c r="F20">
-        <v>1.00704034950418</v>
+        <v>0.6361631586297491</v>
       </c>
       <c r="G20">
-        <v>0.0008057086381566643</v>
+        <v>0.3021476298263934</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002096148804758613</v>
       </c>
       <c r="J20">
-        <v>0.2570240547166804</v>
+        <v>0.2718691071665873</v>
       </c>
       <c r="K20">
-        <v>1.577027875307351</v>
+        <v>0.2248609460274018</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2452155187852014</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.66151199184884</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.181489191522701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.158339123291043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.704393957139757</v>
+        <v>1.63953041086387</v>
       </c>
       <c r="C21">
-        <v>0.2247571347894564</v>
+        <v>0.3329377452780022</v>
       </c>
       <c r="D21">
-        <v>0.3265571125574382</v>
+        <v>0.4226927976571062</v>
       </c>
       <c r="E21">
-        <v>0.2669864900044203</v>
+        <v>0.291467469914771</v>
       </c>
       <c r="F21">
-        <v>1.064163675808814</v>
+        <v>0.6670959404250709</v>
       </c>
       <c r="G21">
-        <v>0.0008005050920359517</v>
+        <v>0.3103739821490379</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003050417239470526</v>
       </c>
       <c r="J21">
-        <v>0.2867658205809107</v>
+        <v>0.2693311378805063</v>
       </c>
       <c r="K21">
-        <v>1.778910371433966</v>
+        <v>0.2169542036394034</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2733177455893951</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.864661981724993</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.251495339520233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.170843447569339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.832670440111826</v>
+        <v>1.759542296728455</v>
       </c>
       <c r="C22">
-        <v>0.2398785837745834</v>
+        <v>0.3531737664272327</v>
       </c>
       <c r="D22">
-        <v>0.350388521298072</v>
+        <v>0.4519820126130583</v>
       </c>
       <c r="E22">
-        <v>0.2859671133197494</v>
+        <v>0.3115847014203084</v>
       </c>
       <c r="F22">
-        <v>1.103803438226251</v>
+        <v>0.6901597713358711</v>
       </c>
       <c r="G22">
-        <v>0.0007971608086118083</v>
+        <v>0.3178012046003573</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003626555238972706</v>
       </c>
       <c r="J22">
-        <v>0.3066090475400074</v>
+        <v>0.2687828658183236</v>
       </c>
       <c r="K22">
-        <v>1.91161659533995</v>
+        <v>0.2131493126514208</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2920573758682252</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.995943361340665</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.303095888890255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.185682019718811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.764121500650106</v>
+        <v>1.696910378815744</v>
       </c>
       <c r="C23">
-        <v>0.2318021591961639</v>
+        <v>0.3404270934365172</v>
       </c>
       <c r="D23">
-        <v>0.337646711000005</v>
+        <v>0.4358080662843236</v>
       </c>
       <c r="E23">
-        <v>0.2758088710872784</v>
+        <v>0.3007017156165404</v>
       </c>
       <c r="F23">
-        <v>1.082425345933999</v>
+        <v>0.6794171122246979</v>
       </c>
       <c r="G23">
-        <v>0.0007989407401217497</v>
+        <v>0.3150385179234618</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003010637865063615</v>
       </c>
       <c r="J23">
-        <v>0.2959787951002397</v>
+        <v>0.2696952899111338</v>
       </c>
       <c r="K23">
-        <v>1.840711179061003</v>
+        <v>0.2160398099174401</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2820999731359848</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.924154232888583</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.274995066849868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.18160771862506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.506243620843122</v>
+        <v>1.457393737285685</v>
       </c>
       <c r="C24">
-        <v>0.2013287442761111</v>
+        <v>0.2957256599052727</v>
       </c>
       <c r="D24">
-        <v>0.2898564876033163</v>
+        <v>0.375973429698405</v>
       </c>
       <c r="E24">
-        <v>0.2379181608728089</v>
+        <v>0.2602009886809356</v>
       </c>
       <c r="F24">
-        <v>1.006143347158371</v>
+        <v>0.6382498259029603</v>
       </c>
       <c r="G24">
-        <v>0.0008057946847481943</v>
+        <v>0.3039842428687578</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001615316373592357</v>
       </c>
       <c r="J24">
-        <v>0.2565442491363115</v>
+        <v>0.2729380419709386</v>
       </c>
       <c r="K24">
-        <v>1.573739457433163</v>
+        <v>0.2263916682530009</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2448722754863155</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.655608211761489</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.180438159225332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.164464918179391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.230990516493733</v>
+        <v>1.198888875682258</v>
       </c>
       <c r="C25">
-        <v>0.1686251388223923</v>
+        <v>0.2482191994096752</v>
       </c>
       <c r="D25">
-        <v>0.2391386912838271</v>
+        <v>0.3124983541305255</v>
       </c>
       <c r="E25">
-        <v>0.1981014852631944</v>
+        <v>0.2174743969393376</v>
       </c>
       <c r="F25">
-        <v>0.9327628632009066</v>
+        <v>0.59823914683178</v>
       </c>
       <c r="G25">
-        <v>0.0008134493099666464</v>
+        <v>0.2949551962458656</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001070600291573243</v>
       </c>
       <c r="J25">
-        <v>0.2155144661614656</v>
+        <v>0.2781623158180651</v>
       </c>
       <c r="K25">
-        <v>1.288325329977624</v>
+        <v>0.2393054007980151</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2058391362680823</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.366741520558605</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.101129279309134</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.155696662328211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.011537925869192</v>
+        <v>1.005319710142459</v>
       </c>
       <c r="C2">
-        <v>0.2091636118424844</v>
+        <v>0.2167196729359802</v>
       </c>
       <c r="D2">
-        <v>0.2652791000490424</v>
+        <v>0.2702737879039319</v>
       </c>
       <c r="E2">
-        <v>0.1864026326424479</v>
+        <v>0.1876922962209093</v>
       </c>
       <c r="F2">
-        <v>0.576225343485234</v>
+        <v>0.5557203178573786</v>
       </c>
       <c r="G2">
-        <v>0.2936467621363761</v>
+        <v>0.2610386130922606</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0007001030325315405</v>
+        <v>0.0006080687754241865</v>
       </c>
       <c r="J2">
-        <v>0.285017585267326</v>
+        <v>0.3045248601065822</v>
       </c>
       <c r="K2">
-        <v>0.2524658691428261</v>
+        <v>0.2339079309368142</v>
       </c>
       <c r="L2">
-        <v>0.1780728805111451</v>
+        <v>0.1272319664067503</v>
       </c>
       <c r="M2">
-        <v>1.15032921979352</v>
+        <v>0.05658192834652986</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1774879978859261</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.165785651876661</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.166836131957936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.110633582927278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8822449119635962</v>
+        <v>0.8796691205777734</v>
       </c>
       <c r="C3">
-        <v>0.1855628159056977</v>
+        <v>0.1882641049443521</v>
       </c>
       <c r="D3">
-        <v>0.2343887214934597</v>
+        <v>0.2383127958022442</v>
       </c>
       <c r="E3">
-        <v>0.1658747161215288</v>
+        <v>0.1669156649363543</v>
       </c>
       <c r="F3">
-        <v>0.5608353149276226</v>
+        <v>0.5426231245428568</v>
       </c>
       <c r="G3">
-        <v>0.2921957998209592</v>
+        <v>0.2620362749123899</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001198345914556143</v>
+        <v>0.0008675459428801879</v>
       </c>
       <c r="J3">
-        <v>0.2895132720907156</v>
+        <v>0.3070789926760469</v>
       </c>
       <c r="K3">
-        <v>0.2608849441412069</v>
+        <v>0.242567851042514</v>
       </c>
       <c r="L3">
-        <v>0.1595779525932528</v>
+        <v>0.1329148514537977</v>
       </c>
       <c r="M3">
-        <v>1.00600991068012</v>
+        <v>0.05870230104465524</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.159130032536055</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.017766606163207</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.17285817866582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.120883239179605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8025889057938969</v>
+        <v>0.8021529313035671</v>
       </c>
       <c r="C4">
-        <v>0.1712411247141432</v>
+        <v>0.1710873385057283</v>
       </c>
       <c r="D4">
-        <v>0.2156154352315696</v>
+        <v>0.2189082060592114</v>
       </c>
       <c r="E4">
-        <v>0.1534327688404602</v>
+        <v>0.1543244204916689</v>
       </c>
       <c r="F4">
-        <v>0.5521809578165389</v>
+        <v>0.5352457482991611</v>
       </c>
       <c r="G4">
-        <v>0.2918173168546048</v>
+        <v>0.2631693618598234</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001689655199953677</v>
+        <v>0.001181400962009249</v>
       </c>
       <c r="J4">
-        <v>0.292616422668452</v>
+        <v>0.3088041605110803</v>
       </c>
       <c r="K4">
-        <v>0.2663877013193243</v>
+        <v>0.2481437616314572</v>
       </c>
       <c r="L4">
-        <v>0.1484042055605457</v>
+        <v>0.1366081232294913</v>
       </c>
       <c r="M4">
-        <v>0.9174188037394799</v>
+        <v>0.06050173955587468</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1480311500360827</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9269535049864714</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.178351688644909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.128641117497267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7697121241503453</v>
+        <v>0.7701307887603548</v>
       </c>
       <c r="C5">
-        <v>0.1659066495014798</v>
+        <v>0.1646314591106659</v>
       </c>
       <c r="D5">
-        <v>0.208138302846919</v>
+        <v>0.2111790819535599</v>
       </c>
       <c r="E5">
-        <v>0.1484311962379294</v>
+        <v>0.1492625404190875</v>
       </c>
       <c r="F5">
-        <v>0.5484161651065662</v>
+        <v>0.5319818562637266</v>
       </c>
       <c r="G5">
-        <v>0.2914554552351589</v>
+        <v>0.263442437965054</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002006347605858938</v>
+        <v>0.001430412153323068</v>
       </c>
       <c r="J5">
-        <v>0.2937896709107406</v>
+        <v>0.3093693686489658</v>
       </c>
       <c r="K5">
-        <v>0.2684673199249854</v>
+        <v>0.2502507717140361</v>
       </c>
       <c r="L5">
-        <v>0.1438756726837269</v>
+        <v>0.1380317346436417</v>
       </c>
       <c r="M5">
-        <v>0.8817257328761059</v>
+        <v>0.06131851236905694</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1435312834035471</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8903642183294096</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.179956705787447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.131128201665732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7638260886909904</v>
+        <v>0.7643926321652827</v>
       </c>
       <c r="C6">
-        <v>0.1655913804441127</v>
+        <v>0.1641454961712014</v>
       </c>
       <c r="D6">
-        <v>0.2070559441515911</v>
+        <v>0.2100536365882704</v>
       </c>
       <c r="E6">
-        <v>0.1476404428641516</v>
+        <v>0.1484613040957257</v>
       </c>
       <c r="F6">
-        <v>0.5472765596338505</v>
+        <v>0.5309389856788869</v>
       </c>
       <c r="G6">
-        <v>0.2909980973111388</v>
+        <v>0.2631122180390761</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002156948783087032</v>
+        <v>0.001585533767848979</v>
       </c>
       <c r="J6">
-        <v>0.2937753556968303</v>
+        <v>0.3092500886085503</v>
       </c>
       <c r="K6">
-        <v>0.2685195332718777</v>
+        <v>0.2503261777947738</v>
       </c>
       <c r="L6">
-        <v>0.1431044702014219</v>
+        <v>0.1381102317263192</v>
       </c>
       <c r="M6">
-        <v>0.8763015945169172</v>
+        <v>0.06141164664069221</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1427651008065354</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8847869485771298</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.178942717437153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.130305907177444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.800988025955121</v>
+        <v>0.800700335927985</v>
       </c>
       <c r="C7">
-        <v>0.1727240042087317</v>
+        <v>0.1723805555073028</v>
       </c>
       <c r="D7">
-        <v>0.2159424252871105</v>
+        <v>0.2194805286377743</v>
       </c>
       <c r="E7">
-        <v>0.1534677069971977</v>
+        <v>0.154417161373388</v>
       </c>
       <c r="F7">
-        <v>0.550694468277193</v>
+        <v>0.5329992830989738</v>
       </c>
       <c r="G7">
-        <v>0.2907083423968118</v>
+        <v>0.2640707612058506</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001938544143342824</v>
+        <v>0.001473243322568152</v>
       </c>
       <c r="J7">
-        <v>0.2920487736965782</v>
+        <v>0.3051840967291781</v>
       </c>
       <c r="K7">
-        <v>0.2656041113110597</v>
+        <v>0.2471464131217793</v>
       </c>
       <c r="L7">
-        <v>0.1482834791192715</v>
+        <v>0.1360516433792611</v>
       </c>
       <c r="M7">
-        <v>0.9183154226211343</v>
+        <v>0.06030982867857304</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1478768038017151</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9276143218774848</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.174810278979891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.123289594899958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9654634866261915</v>
+        <v>0.9609416858991722</v>
       </c>
       <c r="C8">
-        <v>0.2030660122831591</v>
+        <v>0.2082667717544098</v>
       </c>
       <c r="D8">
-        <v>0.2551542094647203</v>
+        <v>0.2606166860600325</v>
       </c>
       <c r="E8">
-        <v>0.1794249097356229</v>
+        <v>0.1808263395699612</v>
       </c>
       <c r="F8">
-        <v>0.5688566596387403</v>
+        <v>0.5465557424176737</v>
       </c>
       <c r="G8">
-        <v>0.2915848611602954</v>
+        <v>0.2664040153036638</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001124913353076629</v>
+        <v>0.001013054585031981</v>
       </c>
       <c r="J8">
-        <v>0.2857317930502461</v>
+        <v>0.294804270635538</v>
       </c>
       <c r="K8">
-        <v>0.2542392283962283</v>
+        <v>0.2349998352411777</v>
       </c>
       <c r="L8">
-        <v>0.1715766391843658</v>
+        <v>0.1282291968965446</v>
       </c>
       <c r="M8">
-        <v>1.102400600406355</v>
+        <v>0.05673289160820616</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1709244829719836</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.115851642765392</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.163852663446463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.102950557728093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.288141975262107</v>
+        <v>1.274037100575271</v>
       </c>
       <c r="C9">
-        <v>0.2612692651769919</v>
+        <v>0.2790385733281795</v>
       </c>
       <c r="D9">
-        <v>0.3329768790002561</v>
+        <v>0.3415012854505619</v>
       </c>
       <c r="E9">
-        <v>0.2315675392792826</v>
+        <v>0.2336607090552292</v>
       </c>
       <c r="F9">
-        <v>0.6137200067463198</v>
+        <v>0.5841569436069634</v>
       </c>
       <c r="G9">
-        <v>0.2995842512822477</v>
+        <v>0.2700854847405765</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0007342990172292119</v>
+        <v>0.0009744981710619882</v>
       </c>
       <c r="J9">
-        <v>0.2772003093795661</v>
+        <v>0.2874172851407195</v>
       </c>
       <c r="K9">
-        <v>0.2361332124867452</v>
+        <v>0.2156035593464676</v>
       </c>
       <c r="L9">
-        <v>0.2189617703566711</v>
+        <v>0.1157060056726831</v>
       </c>
       <c r="M9">
-        <v>1.461439618622961</v>
+        <v>0.05425843005861353</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2178718366610042</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.484160203001693</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.163690833850296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.088474650493566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523723159610768</v>
+        <v>1.502727458451261</v>
       </c>
       <c r="C10">
-        <v>0.3060174458080951</v>
+        <v>0.3323815783680573</v>
       </c>
       <c r="D10">
-        <v>0.3916445097379437</v>
+        <v>0.4040636108033198</v>
       </c>
       <c r="E10">
-        <v>0.2709982808657401</v>
+        <v>0.2739596822953771</v>
       </c>
       <c r="F10">
-        <v>0.6506179422210892</v>
+        <v>0.6103453666145811</v>
       </c>
       <c r="G10">
-        <v>0.3079320677755675</v>
+        <v>0.2871812851175051</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001676746208841173</v>
+        <v>0.001999354311126744</v>
       </c>
       <c r="J10">
-        <v>0.2725345274197508</v>
+        <v>0.2668360515997747</v>
       </c>
       <c r="K10">
-        <v>0.2242862944296853</v>
+        <v>0.2010477473753305</v>
       </c>
       <c r="L10">
-        <v>0.2549479461866468</v>
+        <v>0.1069246047163865</v>
       </c>
       <c r="M10">
-        <v>1.726846150212054</v>
+        <v>0.05421779275345884</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2532590426649648</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.755239031849186</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.172126835030355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.07364317089106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.628803735170095</v>
+        <v>1.605846942200145</v>
       </c>
       <c r="C11">
-        <v>0.3293526462276191</v>
+        <v>0.3575208074211957</v>
       </c>
       <c r="D11">
-        <v>0.4193776736289863</v>
+        <v>0.4363313199640118</v>
       </c>
       <c r="E11">
-        <v>0.2893838184647066</v>
+        <v>0.2933718923730453</v>
       </c>
       <c r="F11">
-        <v>0.6662327034707474</v>
+        <v>0.6128036667268759</v>
       </c>
       <c r="G11">
-        <v>0.3107143103001704</v>
+        <v>0.3161052671214932</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002755594560871266</v>
+        <v>0.003127022227963572</v>
       </c>
       <c r="J11">
-        <v>0.2699466299492528</v>
+        <v>0.2339842117958284</v>
       </c>
       <c r="K11">
-        <v>0.2180897761356491</v>
+        <v>0.1913188213105812</v>
       </c>
       <c r="L11">
-        <v>0.2715325189924158</v>
+        <v>0.1021005142878586</v>
       </c>
       <c r="M11">
-        <v>1.850264498461939</v>
+        <v>0.05319237645531771</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2691709892622072</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.87897297128265</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.172829609165149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.044575295965387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.669626028061543</v>
+        <v>1.646049694659951</v>
       </c>
       <c r="C12">
-        <v>0.3368345608869276</v>
+        <v>0.3653171105323167</v>
       </c>
       <c r="D12">
-        <v>0.4295556287466127</v>
+        <v>0.4485967554010699</v>
       </c>
       <c r="E12">
-        <v>0.296301292713558</v>
+        <v>0.3007627942655944</v>
       </c>
       <c r="F12">
-        <v>0.673551977551945</v>
+        <v>0.6139932607196954</v>
       </c>
       <c r="G12">
-        <v>0.3128191359951202</v>
+        <v>0.3315046584355628</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003010322292490208</v>
+        <v>0.003345716676239618</v>
       </c>
       <c r="J12">
-        <v>0.2695213100927347</v>
+        <v>0.2210533357808941</v>
       </c>
       <c r="K12">
-        <v>0.2164764439575784</v>
+        <v>0.1879699376317472</v>
       </c>
       <c r="L12">
-        <v>0.2779160935870522</v>
+        <v>0.1004481256351877</v>
       </c>
       <c r="M12">
-        <v>1.895822297772611</v>
+        <v>0.05295997147787723</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2752449590569483</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.924367658885558</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.176484734163722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.034255294842083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.66104490725229</v>
+        <v>1.637589577763464</v>
       </c>
       <c r="C13">
-        <v>0.3349363411350339</v>
+        <v>0.3633492883098768</v>
       </c>
       <c r="D13">
-        <v>0.4272852466051233</v>
+        <v>0.4458594917775542</v>
       </c>
       <c r="E13">
-        <v>0.2947915209168102</v>
+        <v>0.2991473899046113</v>
       </c>
       <c r="F13">
-        <v>0.6722148161213397</v>
+        <v>0.6140076577216007</v>
       </c>
       <c r="G13">
-        <v>0.3125484601849493</v>
+        <v>0.3282114791253576</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002911307745349312</v>
+        <v>0.003245713084503166</v>
       </c>
       <c r="J13">
-        <v>0.2697074087063598</v>
+        <v>0.223897601302582</v>
       </c>
       <c r="K13">
-        <v>0.2169539982013511</v>
+        <v>0.1888098971736074</v>
       </c>
       <c r="L13">
-        <v>0.2765497720387344</v>
+        <v>0.1008391945332114</v>
       </c>
       <c r="M13">
-        <v>1.885757652962525</v>
+        <v>0.05306167372297033</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2739475073651931</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.914352972469658</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.17628265250022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.037108330032126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.632251656116694</v>
+        <v>1.609238476123664</v>
       </c>
       <c r="C14">
-        <v>0.3298463089245161</v>
+        <v>0.3580397439356489</v>
       </c>
       <c r="D14">
-        <v>0.420181671227482</v>
+        <v>0.4372993658135442</v>
       </c>
       <c r="E14">
-        <v>0.2899443909412867</v>
+        <v>0.2939697709802118</v>
       </c>
       <c r="F14">
-        <v>0.6669363033715356</v>
+        <v>0.6130178633357843</v>
       </c>
       <c r="G14">
-        <v>0.310964965978421</v>
+        <v>0.3173777815305172</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002757425688327153</v>
+        <v>0.003122140689091779</v>
       </c>
       <c r="J14">
-        <v>0.2699517404148466</v>
+        <v>0.2329516865098711</v>
       </c>
       <c r="K14">
-        <v>0.2180122821876509</v>
+        <v>0.191094525236652</v>
       </c>
       <c r="L14">
-        <v>0.2720612518603929</v>
+        <v>0.1019800265422308</v>
       </c>
       <c r="M14">
-        <v>1.853905104832279</v>
+        <v>0.05319519940524131</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2696752404020089</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.882606759978586</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.173378593441711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.043998049357754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.614200327234244</v>
+        <v>1.591488689814156</v>
       </c>
       <c r="C15">
-        <v>0.3272955451877522</v>
+        <v>0.3553467598756299</v>
       </c>
       <c r="D15">
-        <v>0.4159871036152936</v>
+        <v>0.4322620169642732</v>
       </c>
       <c r="E15">
-        <v>0.2870166162592795</v>
+        <v>0.2908503122354062</v>
       </c>
       <c r="F15">
-        <v>0.6632394348516826</v>
+        <v>0.6118369427178294</v>
       </c>
       <c r="G15">
-        <v>0.3096401331167016</v>
+        <v>0.3108559998765088</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002756331671516676</v>
+        <v>0.003157031892331297</v>
       </c>
       <c r="J15">
-        <v>0.2699179584058058</v>
+        <v>0.2383161580766924</v>
       </c>
       <c r="K15">
-        <v>0.2184069590553079</v>
+        <v>0.1922459246002859</v>
       </c>
       <c r="L15">
-        <v>0.2692973360418875</v>
+        <v>0.1026045817018399</v>
       </c>
       <c r="M15">
-        <v>1.834894716406808</v>
+        <v>0.05317268372852091</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2670371693569393</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.863620057364841</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.170463114611181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.046874495749066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.513378116365118</v>
+        <v>1.492618247847957</v>
       </c>
       <c r="C16">
-        <v>0.3091961645409071</v>
+        <v>0.3356676698224135</v>
       </c>
       <c r="D16">
-        <v>0.3910978507160507</v>
+        <v>0.4032664402029695</v>
       </c>
       <c r="E16">
-        <v>0.270100459100874</v>
+        <v>0.2730023415694944</v>
       </c>
       <c r="F16">
-        <v>0.6455114892587517</v>
+        <v>0.6061813379329735</v>
       </c>
       <c r="G16">
-        <v>0.3046374255129081</v>
+        <v>0.2827028622191818</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002298245640068863</v>
+        <v>0.002763132347927133</v>
       </c>
       <c r="J16">
-        <v>0.2710853763559982</v>
+        <v>0.2673966831451722</v>
       </c>
       <c r="K16">
-        <v>0.2224737525590967</v>
+        <v>0.1997525424390769</v>
       </c>
       <c r="L16">
-        <v>0.2536925676571968</v>
+        <v>0.1065725020427095</v>
       </c>
       <c r="M16">
-        <v>1.72292338686637</v>
+        <v>0.05349627883119901</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2520445558079984</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.751231281240166</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.162092781882649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.066039548617866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.451517943195341</v>
+        <v>1.432198647185771</v>
       </c>
       <c r="C17">
-        <v>0.2981570182967346</v>
+        <v>0.3231665117456828</v>
       </c>
       <c r="D17">
-        <v>0.3759125720327745</v>
+        <v>0.3861748517446131</v>
       </c>
       <c r="E17">
-        <v>0.259796381962019</v>
+        <v>0.2622660798797654</v>
       </c>
       <c r="F17">
-        <v>0.6349534230397538</v>
+        <v>0.6011859423277883</v>
       </c>
       <c r="G17">
-        <v>0.3017766114846907</v>
+        <v>0.2708344469417483</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002097295236976215</v>
+        <v>0.00258285218562726</v>
       </c>
       <c r="J17">
-        <v>0.2719243453327564</v>
+        <v>0.2815260467089971</v>
       </c>
       <c r="K17">
-        <v>0.2250915244130915</v>
+        <v>0.2039444353907136</v>
       </c>
       <c r="L17">
-        <v>0.2442043628885386</v>
+        <v>0.1089351459779166</v>
       </c>
       <c r="M17">
-        <v>1.654308702538287</v>
+        <v>0.05358700546950068</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2428419870344527</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.681867448249449</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.157654268936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.074225200259534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.416980697772829</v>
+        <v>1.398547122197954</v>
       </c>
       <c r="C18">
-        <v>0.2904041101439674</v>
+        <v>0.3143199772577532</v>
       </c>
       <c r="D18">
-        <v>0.3668263712044393</v>
+        <v>0.3762063437700363</v>
       </c>
       <c r="E18">
-        <v>0.2538051874079912</v>
+        <v>0.256075966337157</v>
       </c>
       <c r="F18">
-        <v>0.6302376668970524</v>
+        <v>0.5989599394901788</v>
       </c>
       <c r="G18">
-        <v>0.3011515480733422</v>
+        <v>0.2666481402024701</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001763357294733758</v>
+        <v>0.002202903570702297</v>
       </c>
       <c r="J18">
-        <v>0.2729442964584194</v>
+        <v>0.2883004043361694</v>
       </c>
       <c r="K18">
-        <v>0.2273142659103868</v>
+        <v>0.2067914387617957</v>
       </c>
       <c r="L18">
-        <v>0.2388304800364551</v>
+        <v>0.1104779249354202</v>
       </c>
       <c r="M18">
-        <v>1.613617711437911</v>
+        <v>0.05383556057445738</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2375999742839667</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.640580126529386</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.158389230683269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.080489917919735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.404477018530713</v>
+        <v>1.386377123172878</v>
       </c>
       <c r="C19">
-        <v>0.2888819370048168</v>
+        <v>0.312460445491979</v>
       </c>
       <c r="D19">
-        <v>0.3640488651785745</v>
+        <v>0.3731637205965228</v>
       </c>
       <c r="E19">
-        <v>0.2518505944273173</v>
+        <v>0.2540611870052913</v>
       </c>
       <c r="F19">
-        <v>0.6277003075133578</v>
+        <v>0.5972032905209304</v>
       </c>
       <c r="G19">
-        <v>0.300222188361623</v>
+        <v>0.2648276700444185</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001841932488051867</v>
+        <v>0.002304126141360996</v>
       </c>
       <c r="J19">
-        <v>0.2729165197715133</v>
+        <v>0.2899021342662778</v>
       </c>
       <c r="K19">
-        <v>0.2275549426754999</v>
+        <v>0.2072777965623054</v>
       </c>
       <c r="L19">
-        <v>0.2369744470625932</v>
+        <v>0.1108266044810247</v>
       </c>
       <c r="M19">
-        <v>1.600808704465521</v>
+        <v>0.05373931458927039</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2357843240489217</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.627534630208942</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.156335007031785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.080215341507937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.458185947764065</v>
+        <v>1.438702500996328</v>
       </c>
       <c r="C20">
-        <v>0.2992177256876545</v>
+        <v>0.3243946500284096</v>
       </c>
       <c r="D20">
-        <v>0.3774960771633005</v>
+        <v>0.3879391860734245</v>
       </c>
       <c r="E20">
-        <v>0.2608834943170493</v>
+        <v>0.2633942097054245</v>
       </c>
       <c r="F20">
-        <v>0.6361631586297491</v>
+        <v>0.601866497779028</v>
       </c>
       <c r="G20">
-        <v>0.3021476298263934</v>
+        <v>0.2719820939985311</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002096148804758613</v>
+        <v>0.00257602734209339</v>
       </c>
       <c r="J20">
-        <v>0.2718691071665873</v>
+        <v>0.2802365294991773</v>
       </c>
       <c r="K20">
-        <v>0.2248609460274018</v>
+        <v>0.2035593668350764</v>
       </c>
       <c r="L20">
-        <v>0.2452155187852014</v>
+        <v>0.108703499551229</v>
       </c>
       <c r="M20">
-        <v>1.66151199184884</v>
+        <v>0.0535988196924535</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2438259154120885</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.689169171383696</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.158339123291043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.073707378052362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.63953041086387</v>
+        <v>1.61686115490275</v>
       </c>
       <c r="C21">
-        <v>0.3329377452780022</v>
+        <v>0.3604422155662519</v>
       </c>
       <c r="D21">
-        <v>0.4226927976571062</v>
+        <v>0.4411980260881876</v>
       </c>
       <c r="E21">
-        <v>0.291467469914771</v>
+        <v>0.2958112451910608</v>
       </c>
       <c r="F21">
-        <v>0.6670959404250709</v>
+        <v>0.6091398014808505</v>
       </c>
       <c r="G21">
-        <v>0.3103739821490379</v>
+        <v>0.3274606337756936</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.003050417239470526</v>
+        <v>0.00345423045057025</v>
       </c>
       <c r="J21">
-        <v>0.2693311378805063</v>
+        <v>0.2229649608831004</v>
       </c>
       <c r="K21">
-        <v>0.2169542036394034</v>
+        <v>0.1889714826546864</v>
       </c>
       <c r="L21">
-        <v>0.2733177455893951</v>
+        <v>0.1011744122223597</v>
       </c>
       <c r="M21">
-        <v>1.864661981724993</v>
+        <v>0.05252079044133318</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2707357075344561</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.892538901901702</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.170843447569339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.032244692473654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.759542296728455</v>
+        <v>1.734893072366077</v>
       </c>
       <c r="C22">
-        <v>0.3531737664272327</v>
+        <v>0.3817962538328175</v>
       </c>
       <c r="D22">
-        <v>0.4519820126130583</v>
+        <v>0.476324600934845</v>
       </c>
       <c r="E22">
-        <v>0.3115847014203084</v>
+        <v>0.317247584307907</v>
       </c>
       <c r="F22">
-        <v>0.6901597713358711</v>
+        <v>0.6150962857920632</v>
       </c>
       <c r="G22">
-        <v>0.3178012046003573</v>
+        <v>0.3729754288823841</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003626555238972706</v>
+        <v>0.003853555646340823</v>
       </c>
       <c r="J22">
-        <v>0.2687828658183236</v>
+        <v>0.1939119312770288</v>
       </c>
       <c r="K22">
-        <v>0.2131493126514208</v>
+        <v>0.1802748115850701</v>
       </c>
       <c r="L22">
-        <v>0.2920573758682252</v>
+        <v>0.09682629608573912</v>
       </c>
       <c r="M22">
-        <v>1.995943361340665</v>
+        <v>0.05232285001452652</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2886033240123282</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.023590640459219</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.185682019718811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.008180223800252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.696910378815744</v>
+        <v>1.672954127395428</v>
       </c>
       <c r="C23">
-        <v>0.3404270934365172</v>
+        <v>0.3689650906802058</v>
       </c>
       <c r="D23">
-        <v>0.4358080662843236</v>
+        <v>0.4563031590558353</v>
       </c>
       <c r="E23">
-        <v>0.3007017156165404</v>
+        <v>0.3054939257462124</v>
       </c>
       <c r="F23">
-        <v>0.6794171122246979</v>
+        <v>0.615511335317521</v>
       </c>
       <c r="G23">
-        <v>0.3150385179234618</v>
+        <v>0.3434289878746171</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.003010637865063615</v>
+        <v>0.003279825466488973</v>
       </c>
       <c r="J23">
-        <v>0.2696952899111338</v>
+        <v>0.2129976471992059</v>
       </c>
       <c r="K23">
-        <v>0.2160398099174401</v>
+        <v>0.1862160239844783</v>
       </c>
       <c r="L23">
-        <v>0.2820999731359848</v>
+        <v>0.09952511735711056</v>
       </c>
       <c r="M23">
-        <v>1.924154232888583</v>
+        <v>0.05299754620385499</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2792122197275404</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.952519112477233</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.18160771862506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.029360341327688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.457393737285685</v>
+        <v>1.437928715251076</v>
       </c>
       <c r="C24">
-        <v>0.2957256599052727</v>
+        <v>0.3206573739734893</v>
       </c>
       <c r="D24">
-        <v>0.375973429698405</v>
+        <v>0.3863378814928353</v>
       </c>
       <c r="E24">
-        <v>0.2602009886809356</v>
+        <v>0.2626954502437684</v>
       </c>
       <c r="F24">
-        <v>0.6382498259029603</v>
+        <v>0.6040611677191521</v>
       </c>
       <c r="G24">
-        <v>0.3039842428687578</v>
+        <v>0.2733566414036233</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001615316373592357</v>
+        <v>0.001996142949177937</v>
       </c>
       <c r="J24">
-        <v>0.2729380419709386</v>
+        <v>0.2817636701660078</v>
       </c>
       <c r="K24">
-        <v>0.2263916682530009</v>
+        <v>0.204968258703726</v>
       </c>
       <c r="L24">
-        <v>0.2448722754863155</v>
+        <v>0.1092563818871337</v>
       </c>
       <c r="M24">
-        <v>1.655608211761489</v>
+        <v>0.05408264831907594</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2434925120677605</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.683237207207156</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.164464918179391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.079910614637797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198888875682258</v>
+        <v>1.187351091130893</v>
       </c>
       <c r="C25">
-        <v>0.2482191994096752</v>
+        <v>0.2629383869603572</v>
       </c>
       <c r="D25">
-        <v>0.3124983541305255</v>
+        <v>0.3198013613631332</v>
       </c>
       <c r="E25">
-        <v>0.2174743969393376</v>
+        <v>0.2192903808516888</v>
       </c>
       <c r="F25">
-        <v>0.59823914683178</v>
+        <v>0.5720226833059314</v>
       </c>
       <c r="G25">
-        <v>0.2949551962458656</v>
+        <v>0.2639099603777453</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001070600291573243</v>
+        <v>0.001329713255184828</v>
       </c>
       <c r="J25">
-        <v>0.2781623158180651</v>
+        <v>0.2923969945520994</v>
       </c>
       <c r="K25">
-        <v>0.2393054007980151</v>
+        <v>0.2197158194678597</v>
       </c>
       <c r="L25">
-        <v>0.2058391362680823</v>
+        <v>0.1185398677450102</v>
       </c>
       <c r="M25">
-        <v>1.366741520558605</v>
+        <v>0.05419377638473399</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2049313738352936</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.387212995161917</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.155696662328211</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.087791863321115</v>
       </c>
     </row>
   </sheetData>
